--- a/Excel Formula/絕對參照&相對參照.xlsx
+++ b/Excel Formula/絕對參照&相對參照.xlsx
@@ -10,7 +10,20 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
